--- a/13_APC/01 APC函数介绍.xlsx
+++ b/13_APC/01 APC函数介绍.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\13_APC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB2E07-9192-42A3-837F-E0318B741B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA736CB8-8AC4-47B3-AAE2-6F47FD391F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>APC函数介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,14 @@
   </si>
   <si>
     <t xml:space="preserve">     Alertable:1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个处理内核apc，第二个处理用户apc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有该标志位有效，Alerted才会生效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -526,7 +534,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3592,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3604,7 +3611,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3612,7 +3619,7 @@
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3620,7 +3627,7 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3694,10 +3701,10 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
@@ -3724,7 +3731,7 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3739,7 +3746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670FD39-9129-47FE-9821-7AB21ABB1B1D}">
   <dimension ref="B2:R66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3747,14 +3756,20 @@
       <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3779,7 +3794,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3883,25 +3898,25 @@
       <c r="J22" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -3909,7 +3924,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3920,7 +3935,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3931,7 +3946,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3942,7 +3957,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3953,7 +3968,7 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>29</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -3966,7 +3981,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="O35" s="13" t="s">
+      <c r="O35" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3976,7 +3991,7 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="4"/>
@@ -3994,7 +4009,7 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="4"/>
@@ -4012,7 +4027,7 @@
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -4044,7 +4059,7 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="4"/>
@@ -4062,15 +4077,15 @@
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="O42" s="1" t="s">
@@ -4097,7 +4112,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="4"/>
@@ -4112,15 +4127,15 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
@@ -4138,7 +4153,7 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="4"/>
@@ -4153,7 +4168,7 @@
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="4"/>
@@ -4181,7 +4196,7 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="4"/>
@@ -4196,13 +4211,13 @@
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G51" s="4"/>
@@ -4213,7 +4228,7 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="4"/>
@@ -4228,7 +4243,7 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="4"/>
@@ -4243,7 +4258,7 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="4"/>
@@ -4284,53 +4299,53 @@
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="15" t="s">
+      <c r="G59" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
@@ -4348,7 +4363,7 @@
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="4"/>
@@ -4363,7 +4378,7 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C62" s="4"/>
